--- a/data/apicases.xlsx
+++ b/data/apicases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="936" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="936" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,7 +35,76 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -49,7 +118,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -71,14 +141,15 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -93,15 +164,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -113,69 +176,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -192,19 +192,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,157 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,21 +410,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -455,6 +440,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -472,26 +492,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1140,7 +1140,7 @@
           <t>{
   'grant_type': 'password',
   'username': 'yyhtest',
-  'password': '123456',
+  'password': '123456789',
   'uuid': 690578652,
 }</t>
         </is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>{'access_token': 'QQ09jHHNmjPKSmUycvrEHTGPVCM26FyuX38ftaJUQVMi_aysI8XqlENPp-HtQUR1UfIzYXH_JuF2AP4dcOV_7UzGVT42d21gfWD5VzbYAhSu_ry8g5z_n9m7NUAEvif6S3FYesIjDhuw2uzLtjs_VEz3sl9rRyBI-wv-tfGkgKg06iHN-p8kCbmIwGuXHTLAVC26DGHXYgHgMSgS0FnLsDR9PQeF1WmFZZEKwR7CVJLdJhRPHQcR53DU2BLWHfPP', 'token_type': 'bearer', 'expires_in': 86399, 'refresh_token': 'FQHfI16gcgwKn__aeZWrXXVKVdfPpz3gQi1EWMtAbm6dPLwZNjNos8jVi39LHFM8__1FJEWkL72qKKJVdocPyBbM79XaMCvrmhJXbgovl90baWxFplJq0RKk96GxzNJ4rndtnPq9kHj5J_bqsL-cgK7DYiYn7hmaNrv8J6GFJf56nOVurKZ5z97vkT3Wuy0x5BZE1XBga1uOBIQr2qNCxr8Hq8WMsWM08tleM7fhOyyNBGc6fXF5wMH__Sy7vuLT', 'user_orgname': '', 'user_name': '小袁', 'user_serialnumber': '459884', 'user_status': 0, 'code': 1, 'msg': '验证通过', 'result': ''}</t>
+          <t>{'access_token': '92T64Cex09UVG6voOsb3dtT6-LZuCQmINoObPsGNW0XK4hsA2QnGvkmzs1x9KL2BmnsBRY9IjN15O26T0qwrWP_dYIXHcgmIcsG6F3qzf8p_J5Gk93mpp5SGQpkP56bnW_pibCoOiqD0l936PmcQZNlKwX0tCY778q7YDqfayxHm025mxlzlAW8SbSPfBvOoreZ7xzOtWMynAXJGiOJ6wP7-nTJ-IfpkaMFjv9IhyS09Cbb1yTK9ewJHPo37CTnF', 'token_type': 'bearer', 'expires_in': 86399, 'refresh_token': 'rhxBVUK2Em2ECbyFjXspFYEmYKee9V3EZdKlspbAgw45BMxbuWnmyLmuk0bK0_16zO1taalGL6rnhc43mC7toAuQMpqm5Z7njHqCZc5ZRBptWvRIlg9Z8ldvq3dXjyIAuxNNdEwuGJJ1_uGbdTug-Ra424xrjwkOtoR5zT_C2_K_nmCbO6jk935VO5d6mumkXnp6Gc4BPmen4-PFzTUfXtKTx8EfaBzzTEXUNqn85K_PyZ-gUvomsgpO-wCs3C1N', 'user_orgname': '', 'user_name': '小袁', 'user_serialnumber': '459884', 'user_status': 0, 'code': 1, 'msg': '验证通过', 'result': ''}</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
@@ -1427,7 +1427,7 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1534,12 +1534,12 @@
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>{'code': '1', 'msg': '操作执行成功！', 'result': None}</t>
+          <t>{'code': -409, 'msg': '检测到用户在多个设备登录', 'result': ''}</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>{'code': '0', 'msg': "Column 'OrgName' cannot be null", 'result': None}</t>
+          <t>{'code': -409, 'msg': '检测到用户在多个设备登录', 'result': ''}</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">

--- a/data/apicases.xlsx
+++ b/data/apicases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="936" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="936" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,6 +35,13 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -42,7 +49,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -57,20 +64,6 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
@@ -104,22 +97,7 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +119,30 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -164,15 +165,14 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -192,187 +192,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +404,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -421,21 +430,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,13 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,9 +490,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -516,19 +516,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -537,112 +537,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1425,13 +1425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col width="10.625" customWidth="1" min="1" max="1"/>
     <col width="13.625" customWidth="1" min="2" max="2"/>
@@ -1534,65 +1534,12 @@
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>{'code': -409, 'msg': '检测到用户在多个设备登录', 'result': ''}</t>
+          <t>{'code': '1', 'msg': '操作执行成功！', 'result': None}</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>不通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="128.25" customHeight="1">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>OrgManage</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>所有信息为空</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>/api/OrgManage/Add</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>{
-  'Id': 0,
-  'OrgName': '',
-  'ProvinceId': 3,
-  'CityId': 276,
-  'Contacts': '',
-  'PhoneNumber': '',
-  'OrgStatus': 1
-}</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>{'code':'1', 'msg': '操作执行成功！'}</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>{'code': -409, 'msg': '检测到用户在多个设备登录', 'result': ''}</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
